--- a/1609面试公司记录表.xlsx
+++ b/1609面试公司记录表.xlsx
@@ -1,356 +1,681 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\class\实训三1609\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="6390"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1609A" sheetId="1" r:id="rId1"/>
     <sheet name="1609B" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试邀请人</t>
+  </si>
+  <si>
+    <t>面试人</t>
+  </si>
+  <si>
+    <t>面试时间</t>
+  </si>
+  <si>
+    <t>面试情况</t>
   </si>
   <si>
     <t>北京空德科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘红丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10－19－14：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>德成鸿业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郑隆乾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10－19－16：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王兆云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10－19－15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>靳凯凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玉斌</t>
   </si>
   <si>
     <t>北京中科建友科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王玉斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10－19－11：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>北京众橙世纪传媒技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吴女士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王润欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中企品研品牌顾问股分有限公司</t>
+  </si>
+  <si>
+    <t>黄菲</t>
+  </si>
+  <si>
+    <t>石涛</t>
+  </si>
+  <si>
+    <t>新致软件（北京）</t>
+  </si>
+  <si>
+    <t>高国栋</t>
+  </si>
+  <si>
+    <t>10－20－10：00</t>
+  </si>
+  <si>
+    <t>德邦物流</t>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>10－23－13：30</t>
+  </si>
+  <si>
+    <t>齐力众信</t>
+  </si>
+  <si>
+    <t>李雨</t>
+  </si>
+  <si>
+    <t>10－20－14：00</t>
+  </si>
+  <si>
+    <t>京创曙光科技有限公司</t>
+  </si>
+  <si>
+    <t>李宏光</t>
+  </si>
+  <si>
+    <t>10－20－15：00</t>
+  </si>
+  <si>
+    <t>10-20-8：00</t>
+  </si>
+  <si>
+    <t>信永中和会计师事务所（象鼻塔科技）</t>
+  </si>
+  <si>
+    <t>史茹莹</t>
+  </si>
+  <si>
+    <t>腾讯公司（北京）</t>
+  </si>
+  <si>
+    <t>李姜波</t>
+  </si>
+  <si>
+    <t>北京医信天下数据有限公司</t>
+  </si>
+  <si>
+    <t>10-20 - 11:00</t>
+  </si>
+  <si>
+    <t>大连安普诺克</t>
+  </si>
+  <si>
+    <t>贺薇雅</t>
+  </si>
+  <si>
+    <t>10-19-13:00</t>
+  </si>
+  <si>
+    <t>拓天资产</t>
+  </si>
+  <si>
+    <t>屹石资产</t>
+  </si>
+  <si>
+    <t>10-23 - 11:00</t>
+  </si>
+  <si>
+    <t>闻壹信息</t>
+  </si>
+  <si>
+    <t>北京美莱成形美容医院</t>
+  </si>
+  <si>
+    <t>张佳波</t>
+  </si>
+  <si>
+    <t>10.19-8:00</t>
+  </si>
+  <si>
+    <t>北京瑞达通圣科技有限公司</t>
+  </si>
+  <si>
+    <t>10.20-10:00</t>
+  </si>
+  <si>
+    <t>北京所问数据科技有限公司</t>
+  </si>
+  <si>
+    <t>杨燕倩</t>
+  </si>
+  <si>
+    <t>10.20-15:00</t>
+  </si>
+  <si>
+    <t>极客天地</t>
+  </si>
+  <si>
+    <t>瑞刊科技</t>
+  </si>
+  <si>
+    <t>10-20-15:00</t>
   </si>
   <si>
     <t>八斗伙计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>孙玉海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄健聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北京优家信息技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>常柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任宇航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10－19－10：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>源石智影科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>孙玉栋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘太明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘肖飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李晋飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕霖霖</t>
+  </si>
+  <si>
+    <t>梁新星</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>王鑫</t>
+  </si>
+  <si>
+    <t>胡军客</t>
+  </si>
+  <si>
+    <t>武嘉佳</t>
+  </si>
+  <si>
+    <t>好啦科技</t>
+  </si>
+  <si>
+    <t>王宏</t>
+  </si>
+  <si>
+    <t>10－19－16：00</t>
+  </si>
+  <si>
+    <t>聚点时尚文化传媒</t>
   </si>
   <si>
     <t>郭梦雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚点时尚文化传媒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10－19－15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾可期资产管理有限公司</t>
   </si>
   <si>
     <t>原瑶瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好啦科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10－19－16：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕霖霖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁新星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾可期资产管理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中企品研品牌顾问股分有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄菲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新致软件（北京）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高国栋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10－20－10：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德邦物流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10－20－13：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐力众信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京创曙光科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李宏光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10－20－14：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10－20－15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信永中和会计师事务所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史茹莹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯公司（北京）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李姜波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>北京瑞达通圣科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北京艾为飞鸿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邹明慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨帆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡军客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花韵在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武嘉佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩奥大华科技有限公司</t>
+  </si>
+  <si>
+    <t>联龙博通</t>
+  </si>
+  <si>
+    <t>北京源石智影科技有限公司</t>
+  </si>
+  <si>
+    <t>10-19-15:00</t>
+  </si>
+  <si>
+    <t>游怡翔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -358,9 +683,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -372,17 +939,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,7 +1042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +1077,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,27 +1251,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="0.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
@@ -669,59 +1275,59 @@
     <col min="11" max="11" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -747,137 +1353,257 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 H1:H1048576 K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 H$1:H$1048576 K$1:K$1048576">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="8.75" hidden="1" customWidth="1"/>
@@ -892,266 +1618,330 @@
     <col min="17" max="17" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" customHeight="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576 Q1:Q1048576 T1 W1 Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 W1 Z1 E$1:E$1048576 H$1:H$1048576 K$1:K$1048576 N$1:N$1048576 Q$1:Q$1048576">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>